--- a/Results/List of orders.xlsx
+++ b/Results/List of orders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
   <si>
     <t>Order</t>
   </si>
@@ -200,6 +200,147 @@
   </si>
   <si>
     <t>12 [96,95,94,93,92,...]</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Valid DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Taken </t>
+  </si>
+  <si>
+    <t>No.of schedules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Execution time </t>
+  </si>
+  <si>
+    <t>State Space</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>order(1)</t>
+  </si>
+  <si>
+    <t>("1",6,4),("2",4,2),("3",3,2)</t>
+  </si>
+  <si>
+    <t>No constraints</t>
+  </si>
+  <si>
+    <t>187 secs</t>
+  </si>
+  <si>
+    <t>172 secs</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Dept 1</t>
+  </si>
+  <si>
+    <t>Dept 2</t>
+  </si>
+  <si>
+    <t>Dept 3</t>
+  </si>
+  <si>
+    <t>156 secs</t>
+  </si>
+  <si>
+    <t>("1",6,4),("2",4,2),("3",3,2),("24",5,3)</t>
+  </si>
+  <si>
+    <t>("1","3",Before),("1","2",InProcess</t>
+  </si>
+  <si>
+    <t>SS nodes</t>
+  </si>
+  <si>
+    <t>1 secs</t>
+  </si>
+  <si>
+    <t>("7",5,2),("8",5,3),("9",5,3),("17",5,3),("18",5,3)</t>
+  </si>
+  <si>
+    <t>188 secs</t>
+  </si>
+  <si>
+    <t>("10",30,5),("11",10,2),("12",5,4),("20",12,3),("21",6,3),("23",5,3)</t>
+  </si>
+  <si>
+    <t>186 secs</t>
+  </si>
+  <si>
+    <t>("21","23",Before),("20","12", Before),("10","12", Before)</t>
+  </si>
+  <si>
+    <t>("21","23",Before),("12","21", InProcess),("20","11", InProcess),("20","12",Before),("10","12", Before)</t>
+  </si>
+  <si>
+    <t>218 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst Execution time </t>
+  </si>
+  <si>
+    <t>("29",20,6),("30",50,8),("31",25,3),("32",14,7),("33",36,8),("34",54,5),("35",42,10)</t>
+  </si>
+  <si>
+    <t>("29","30", InProcess),("31","34", Before),("34","32", InProcess)</t>
+  </si>
+  <si>
+    <t>219 secs</t>
+  </si>
+  <si>
+    <t>121 secs</t>
+  </si>
+  <si>
+    <t>("29","30", InProcess)</t>
+  </si>
+  <si>
+    <t>No.of tasks</t>
+  </si>
+  <si>
+    <t>("25",48,20),("26",22,11),("27",28,6),("28",12,3),("29",20,6),("30",50,8),("31",25,3),("32",14,7)</t>
+  </si>
+  <si>
+    <t>4588 secs</t>
+  </si>
+  <si>
+    <t>6 secs</t>
+  </si>
+  <si>
+    <t>("4",5,2),("5",5,3),("6",5,3),("13",5,2),("19",5,2),("22",5,3),("33",36,8),("34",54,5),("24",5,3)</t>
+  </si>
+  <si>
+    <t>("25","26",InProcess),("29","30",InProcess)</t>
+  </si>
+  <si>
+    <t>1871 secs</t>
+  </si>
+  <si>
+    <t>4 secs</t>
+  </si>
+  <si>
+    <t>26 secs</t>
+  </si>
+  <si>
+    <t>("5","6", Before),("13","22", Before),("33","34", Before),("4","6", Inprocess)</t>
+  </si>
+  <si>
+    <t>("5","6", Before),("13","22", Before)</t>
+  </si>
+  <si>
+    <t>1 sec</t>
   </si>
 </sst>
 </file>
@@ -215,15 +356,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -488,11 +635,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -619,6 +888,123 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,13 +1894,1048 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C6:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="47"/>
+    <col min="4" max="5" width="15.5703125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="47" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="47" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="50" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="50" customWidth="1"/>
+    <col min="11" max="11" width="8" style="50" customWidth="1"/>
+    <col min="12" max="12" width="27.5703125" style="47" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="47" customWidth="1"/>
+    <col min="16" max="17" width="19.42578125" style="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="3:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+    </row>
+    <row r="9" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="54">
+        <v>3</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="54">
+        <v>7</v>
+      </c>
+      <c r="I10" s="60">
+        <v>5</v>
+      </c>
+      <c r="J10" s="60">
+        <v>6</v>
+      </c>
+      <c r="K10" s="60">
+        <v>4</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="54">
+        <v>39</v>
+      </c>
+      <c r="O10" s="54">
+        <v>10</v>
+      </c>
+      <c r="P10" s="55">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="61"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="61"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="48">
+        <v>3</v>
+      </c>
+      <c r="I12" s="49">
+        <v>5</v>
+      </c>
+      <c r="J12" s="49">
+        <v>6</v>
+      </c>
+      <c r="K12" s="49">
+        <v>4</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="48">
+        <v>18</v>
+      </c>
+      <c r="O12" s="48">
+        <v>4</v>
+      </c>
+      <c r="P12" s="62">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="61"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+    </row>
+    <row r="14" spans="3:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="58">
+        <v>1</v>
+      </c>
+      <c r="I14" s="58">
+        <v>5</v>
+      </c>
+      <c r="J14" s="58">
+        <v>6</v>
+      </c>
+      <c r="K14" s="58">
+        <v>4</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="57">
+        <v>7</v>
+      </c>
+      <c r="O14" s="57">
+        <v>1</v>
+      </c>
+      <c r="P14" s="59">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+    </row>
+    <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="54">
+        <v>4</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="54">
+        <v>4</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="54">
+        <v>39</v>
+      </c>
+      <c r="O16" s="54">
+        <v>18</v>
+      </c>
+      <c r="P16" s="55">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="61"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+    </row>
+    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="61"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="48">
+        <v>2</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="48">
+        <v>22</v>
+      </c>
+      <c r="O18" s="48">
+        <v>9</v>
+      </c>
+      <c r="P18" s="62">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="61"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+    </row>
+    <row r="20" spans="3:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="57">
+        <v>2</v>
+      </c>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="57">
+        <v>15</v>
+      </c>
+      <c r="O20" s="57">
+        <v>3</v>
+      </c>
+      <c r="P20" s="59">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+    </row>
+    <row r="22" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="54">
+        <v>5</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="54">
+        <v>6</v>
+      </c>
+      <c r="I22" s="60">
+        <v>5</v>
+      </c>
+      <c r="J22" s="60">
+        <v>6</v>
+      </c>
+      <c r="K22" s="60">
+        <v>4</v>
+      </c>
+      <c r="L22" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="54">
+        <v>25</v>
+      </c>
+      <c r="O22" s="54">
+        <v>12</v>
+      </c>
+      <c r="P22" s="55">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="61"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+    </row>
+    <row r="24" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="61"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="48">
+        <v>8</v>
+      </c>
+      <c r="I24" s="49">
+        <v>5</v>
+      </c>
+      <c r="J24" s="49">
+        <v>4</v>
+      </c>
+      <c r="K24" s="49">
+        <v>4</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="48">
+        <v>171</v>
+      </c>
+      <c r="N24" s="48">
+        <v>47</v>
+      </c>
+      <c r="O24" s="48">
+        <v>8</v>
+      </c>
+      <c r="P24" s="62">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="61"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+    </row>
+    <row r="26" spans="3:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="57">
+        <v>1</v>
+      </c>
+      <c r="I26" s="58">
+        <v>5</v>
+      </c>
+      <c r="J26" s="58">
+        <v>6</v>
+      </c>
+      <c r="K26" s="58">
+        <v>4</v>
+      </c>
+      <c r="L26" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="57">
+        <v>16</v>
+      </c>
+      <c r="O26" s="57">
+        <v>2</v>
+      </c>
+      <c r="P26" s="59">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="79"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+    </row>
+    <row r="28" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C28" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="85">
+        <v>6</v>
+      </c>
+      <c r="F28" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="48">
+        <v>13</v>
+      </c>
+      <c r="I28" s="49">
+        <v>5</v>
+      </c>
+      <c r="J28" s="49">
+        <v>4</v>
+      </c>
+      <c r="K28" s="49">
+        <v>4</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28" s="48">
+        <v>161</v>
+      </c>
+      <c r="O28" s="48">
+        <v>87</v>
+      </c>
+      <c r="P28" s="48">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+    </row>
+    <row r="30" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="48">
+        <v>1</v>
+      </c>
+      <c r="I30" s="52">
+        <v>5</v>
+      </c>
+      <c r="J30" s="52">
+        <v>6</v>
+      </c>
+      <c r="K30" s="52">
+        <v>4</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="N30" s="51">
+        <v>21</v>
+      </c>
+      <c r="O30" s="51">
+        <v>3</v>
+      </c>
+      <c r="P30" s="80">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+    </row>
+    <row r="32" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C32" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="47">
+        <v>7</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="47">
+        <v>2</v>
+      </c>
+      <c r="I32" s="50">
+        <v>12</v>
+      </c>
+      <c r="J32" s="50">
+        <v>8</v>
+      </c>
+      <c r="K32" s="50">
+        <v>7</v>
+      </c>
+      <c r="L32" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" s="47">
+        <v>55</v>
+      </c>
+      <c r="O32" s="47">
+        <v>6</v>
+      </c>
+      <c r="P32" s="47">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="G34" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="47">
+        <v>1</v>
+      </c>
+      <c r="I34" s="50">
+        <v>8</v>
+      </c>
+      <c r="J34" s="50">
+        <v>6</v>
+      </c>
+      <c r="K34" s="50">
+        <v>4</v>
+      </c>
+      <c r="L34" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="47">
+        <v>38</v>
+      </c>
+      <c r="O34" s="47">
+        <v>3</v>
+      </c>
+      <c r="P34" s="47">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="47">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="47">
+        <v>11</v>
+      </c>
+      <c r="I36" s="50">
+        <v>8</v>
+      </c>
+      <c r="J36" s="50">
+        <v>6</v>
+      </c>
+      <c r="K36" s="50">
+        <v>4</v>
+      </c>
+      <c r="L36" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M36" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="N36" s="47">
+        <v>373</v>
+      </c>
+      <c r="O36" s="47">
+        <v>96</v>
+      </c>
+      <c r="P36" s="47">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="47">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="66"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="M37" s="68"/>
+      <c r="N37" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="O37" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q37" s="70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C38" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="47">
+        <v>8</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="47">
+        <v>1264</v>
+      </c>
+      <c r="I38" s="50">
+        <v>15</v>
+      </c>
+      <c r="J38" s="50">
+        <v>8</v>
+      </c>
+      <c r="K38" s="50">
+        <v>7</v>
+      </c>
+      <c r="L38" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="M38" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="N38" s="47">
+        <v>8258</v>
+      </c>
+      <c r="O38" s="47">
+        <v>18600</v>
+      </c>
+      <c r="P38" s="47">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="47">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="H39" s="47">
+        <v>621</v>
+      </c>
+      <c r="I39" s="50">
+        <v>12</v>
+      </c>
+      <c r="J39" s="50">
+        <v>7</v>
+      </c>
+      <c r="K39" s="50">
+        <v>8</v>
+      </c>
+      <c r="L39" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M39" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N39" s="47">
+        <v>5784</v>
+      </c>
+      <c r="O39" s="47">
+        <v>4260</v>
+      </c>
+      <c r="P39" s="47">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="47">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C41" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="47">
+        <v>9</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="47">
+        <v>76</v>
+      </c>
+      <c r="I41" s="50">
+        <v>15</v>
+      </c>
+      <c r="J41" s="50">
+        <v>8</v>
+      </c>
+      <c r="K41" s="50">
+        <v>7</v>
+      </c>
+      <c r="L41" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="N41" s="47">
+        <v>9124</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="G43" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="47">
+        <v>180</v>
+      </c>
+      <c r="I43" s="50">
+        <v>12</v>
+      </c>
+      <c r="J43" s="50">
+        <v>8</v>
+      </c>
+      <c r="K43" s="50">
+        <v>7</v>
+      </c>
+      <c r="L43" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="N43" s="47">
+        <v>2979</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:M37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
